--- a/7-Gráficos/22. Gráfico de Dispersão - Material(1).xlsx
+++ b/7-Gráficos/22. Gráfico de Dispersão - Material(1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaof\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\cursos\excel\7-Gráficos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC909709-3223-4C00-B42F-96D2E1D8DAE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541AAF83-961E-4FDE-BAAF-99A690571BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{05953231-7749-403F-9938-3EF6E32AD592}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{05953231-7749-403F-9938-3EF6E32AD592}"/>
   </bookViews>
   <sheets>
     <sheet name="Exemplo 1" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,6 @@
     <sheet name="Exemplo 3" sheetId="2" r:id="rId5"/>
     <sheet name="Do Zero 3" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Exemplo 2'!$A$1:$A$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Exemplo 2'!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Exemplo 2'!$C$2:$C$11</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,6 +32,9 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -131,7 +129,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -219,9 +217,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -237,7 +232,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -320,7 +318,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4C921B28-3E9D-45E7-A1D4-CE4AEE55F363}" type="CELLRANGE">
+                    <a:fld id="{C8888A30-43D9-4D77-8776-0EBB83746A7E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -353,7 +351,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DDF5C8D9-A543-4248-8FD5-BADCA1C2B184}" type="CELLRANGE">
+                    <a:fld id="{455B7E67-869D-4DFD-9416-E109F37C044A}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -387,7 +385,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F36F6B24-F524-4498-B8A0-DE187A010CB3}" type="CELLRANGE">
+                    <a:fld id="{CC8712B9-6088-437F-B27F-00C2A4767734}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -421,7 +419,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BE8864DC-BFB4-4937-ABAA-A004994B8CCA}" type="CELLRANGE">
+                    <a:fld id="{3F0705AB-2677-423F-84E6-F86FF8E1030F}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -455,7 +453,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7FC41775-CECB-4C10-B6BC-D321030886B7}" type="CELLRANGE">
+                    <a:fld id="{E74D3A70-573D-4764-BEE5-78AC275E5AC3}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -489,7 +487,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{76DC7298-273D-45E0-9DE6-A74EA37A8A86}" type="CELLRANGE">
+                    <a:fld id="{F3530D80-6812-4CB2-B90E-3EDB737D8844}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -523,7 +521,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7256F9A0-9A05-4422-8BEA-D2AD9DE8C3FD}" type="CELLRANGE">
+                    <a:fld id="{AFE4285D-1957-4909-BB1F-A84C9EF2A7DB}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -557,7 +555,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8121DC5F-77A9-4B35-8E40-CB3DF1096F56}" type="CELLRANGE">
+                    <a:fld id="{D1641728-D1BF-46CF-97A7-0DEF224767FB}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -591,7 +589,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CDCE3F17-595D-4E74-B318-0C0FC50A4695}" type="CELLRANGE">
+                    <a:fld id="{7606C8FA-649C-4D39-AA39-6279DCFB82AD}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -625,7 +623,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8A54E839-83DB-4C39-8DD3-F2E9B239FAC3}" type="CELLRANGE">
+                    <a:fld id="{7CC7B78F-023F-4AFF-AA39-CEB77D441E24}" type="CELLRANGE">
                       <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -1147,6 +1145,799 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Avaliação</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DEB53F45-77EC-4957-8CE4-2B433E2E7D33}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALODACÉLULA]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="pt-BR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-515E-4DF8-9615-E6E7E046C50A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7605B09A-08D3-4771-A064-0A2E8225DEFE}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALODACÉLULA]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="pt-BR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-515E-4DF8-9615-E6E7E046C50A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B0C72FED-006C-40EE-8AC1-2E691F89D5F8}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALODACÉLULA]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="pt-BR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-515E-4DF8-9615-E6E7E046C50A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BE68C949-910C-485D-B40A-C4AA3B983CCB}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALODACÉLULA]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="pt-BR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-515E-4DF8-9615-E6E7E046C50A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2E697A1F-0033-4E4B-AB3C-662D096D4A6A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALODACÉLULA]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="pt-BR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-515E-4DF8-9615-E6E7E046C50A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{AB08D74A-AE91-48EC-8453-CFB8D7E5D793}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALODACÉLULA]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="pt-BR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-515E-4DF8-9615-E6E7E046C50A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3C213219-7A28-42B0-B102-56A470CAF6CB}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALODACÉLULA]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="pt-BR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-515E-4DF8-9615-E6E7E046C50A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D02EA20A-B79E-425A-A991-370FC82E87E4}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALODACÉLULA]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="pt-BR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-515E-4DF8-9615-E6E7E046C50A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2051DA86-D7DB-414E-821A-B1FB89134E63}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALODACÉLULA]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="pt-BR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-515E-4DF8-9615-E6E7E046C50A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BE124E67-A96C-4830-B4BE-8E11E6194453}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALODACÉLULA]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="pt-BR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-515E-4DF8-9615-E6E7E046C50A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Do Zero 1'!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Do Zero 1'!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>'Do Zero 1'!$A$2:$A$11</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>Empresa 1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Empresa 2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Empresa 3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Empresa 4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Empresa 5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Empresa 6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Empresa 7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Empresa 8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Empresa 9</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Empresa 10</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-515E-4DF8-9615-E6E7E046C50A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="644328176"/>
+        <c:axId val="644324336"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="644328176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="644324336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="644324336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="644328176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
@@ -1187,7 +1978,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D3EA5A9D-32EA-4035-8087-8B46568C3614}" type="CELLRANGE">
+                    <a:fld id="{1BE267A7-8F30-44D2-9A18-B07BE22CBFF6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -1206,7 +1997,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1221,8 +2011,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2268F727-22F8-4967-B082-DEA740A8F13D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{22FAC279-EF88-48C9-AB34-373D3A724EDF}" type="CELLRANGE">
+                      <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
                     </a:fld>
@@ -1255,8 +2045,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3AACB4A9-C258-4DDB-B2B2-38A018307254}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{45B67921-121A-4BA6-BEAA-8F194432D948}" type="CELLRANGE">
+                      <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
                     </a:fld>
@@ -1289,8 +2079,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2F190A06-A355-46C3-B811-52922725E19D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{098A1734-232E-4A71-8E80-8D005D4E5F2B}" type="CELLRANGE">
+                      <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
                     </a:fld>
@@ -1323,8 +2113,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3C993551-DE44-483F-8643-7EA1B1BE0C87}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{125894AF-622F-4AF4-AF87-A1993D1E6812}" type="CELLRANGE">
+                      <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
                     </a:fld>
@@ -1357,8 +2147,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CFC8B345-5854-4707-B20B-824D70797F95}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{8ED02BCF-B529-40F4-AE49-797EA66C4208}" type="CELLRANGE">
+                      <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
                     </a:fld>
@@ -1391,8 +2181,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{665E3EB4-308A-4187-BBE8-F20FBE3D0639}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{259622E6-6A92-4253-AEFF-AE6C66A58DA9}" type="CELLRANGE">
+                      <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
                     </a:fld>
@@ -1425,8 +2215,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B9D5D15C-1157-40BD-AEB5-7F96EABAD1B6}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{4654AA68-984F-46B1-B5FC-8F85DE025E78}" type="CELLRANGE">
+                      <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
                     </a:fld>
@@ -1459,8 +2249,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{14E10A0C-D718-4E69-B3B6-A1F3D1759976}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{A7457103-35B8-4CAC-ADFE-4DC2BC2ABF39}" type="CELLRANGE">
+                      <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
                     </a:fld>
@@ -1493,8 +2283,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{95A03BA0-EB17-4C43-81FA-0A7F58F92BF7}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{8F7038DC-5AC7-4458-91B9-637799001A07}" type="CELLRANGE">
+                      <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
                     </a:fld>
@@ -1959,7 +2749,1075 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12284324863305356"/>
+          <c:y val="5.7854370000157168E-2"/>
+          <c:w val="0.72698863125546564"/>
+          <c:h val="0.75487701761830672"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:bubbleChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Durabilidade</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B3812E4F-9621-4C31-8CE8-05ED3BC33435}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALODACÉLULA]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>; </a:t>
+                    </a:r>
+                    <a:fld id="{67FB4153-6C7C-4744-8B5D-A369C7060764}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[VALOR Y]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-10A5-4F45-8CF8-41D570D7CE43}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{67EDCC51-107C-43B2-9B61-22388368F51E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALODACÉLULA]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>; </a:t>
+                    </a:r>
+                    <a:fld id="{3BA87F3D-0621-4F39-ADEF-214590E7E8BE}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[VALOR Y]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-10A5-4F45-8CF8-41D570D7CE43}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{764D1992-77F1-4384-83AE-405F9FF68F3E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALODACÉLULA]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>; </a:t>
+                    </a:r>
+                    <a:fld id="{E3117261-7C95-4FAE-850B-6C711DC034A9}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[VALOR Y]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-10A5-4F45-8CF8-41D570D7CE43}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C0DB2110-1107-4670-A901-49B7DC36130B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALODACÉLULA]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>; </a:t>
+                    </a:r>
+                    <a:fld id="{0B95E0F1-87E9-4D6F-9403-CC13C071BB39}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[VALOR Y]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-10A5-4F45-8CF8-41D570D7CE43}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{86E3FD15-B0EB-4A00-9016-D0B3C32EB1A1}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALODACÉLULA]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>; </a:t>
+                    </a:r>
+                    <a:fld id="{A2F836ED-F553-4E47-B86D-BDFECA90F759}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[VALOR Y]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-10A5-4F45-8CF8-41D570D7CE43}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9B2C3C63-C7C2-440E-B9CD-80AEB42892D4}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALODACÉLULA]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>; </a:t>
+                    </a:r>
+                    <a:fld id="{90F4FF60-A583-4A28-B974-429E03759403}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[VALOR Y]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-10A5-4F45-8CF8-41D570D7CE43}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D29E5CB4-5924-4F29-957F-E5B41D565962}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALODACÉLULA]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>; </a:t>
+                    </a:r>
+                    <a:fld id="{339C25E1-0290-4F6D-A74D-7956B63ED39A}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[VALOR Y]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-10A5-4F45-8CF8-41D570D7CE43}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{45152931-F52A-4D0B-81D7-30ADB8E41089}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALODACÉLULA]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>; </a:t>
+                    </a:r>
+                    <a:fld id="{05403D49-B38E-4BE4-94FE-8C8A7A222397}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[VALOR Y]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-10A5-4F45-8CF8-41D570D7CE43}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{08C00AC7-81AC-4E5D-A663-CAAAD4A80471}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALODACÉLULA]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>; </a:t>
+                    </a:r>
+                    <a:fld id="{C90EEE08-81D8-430A-B988-C04D2071EEA8}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[VALOR Y]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-10A5-4F45-8CF8-41D570D7CE43}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FF0BA3C8-5EA2-4021-8348-E6838BE8F1E4}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALODACÉLULA]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>; </a:t>
+                    </a:r>
+                    <a:fld id="{81EE1407-8256-48E1-9070-F05DF8722AD7}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[VALOR Y]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-10A5-4F45-8CF8-41D570D7CE43}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Do Zero 2'!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Do Zero 2'!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>'Do Zero 2'!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>'Do Zero 2'!$A$2:$A$11</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>Empresa 1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Empresa 2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Empresa 3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Empresa 4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Empresa 5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Empresa 6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Empresa 7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Empresa 8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Empresa 9</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Empresa 10</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-10A5-4F45-8CF8-41D570D7CE43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:bubbleScale val="100"/>
+        <c:showNegBubbles val="0"/>
+        <c:axId val="416285456"/>
+        <c:axId val="447678384"/>
+      </c:bubbleChart>
+      <c:valAx>
+        <c:axId val="416285456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="12"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Qualidade</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.74413034416810375"/>
+              <c:y val="0.89538906439090327"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="447678384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="447678384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t> Tempo de Entrega</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.2835565944439449E-2"/>
+              <c:y val="5.4222264133151456E-4"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="416285456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -2020,7 +3878,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2244676E-C6CF-4C08-86F8-2651851EED10}" type="CELLRANGE">
+                    <a:fld id="{B5C3A339-E673-4ED5-900D-73F855EC0C93}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
@@ -2039,7 +3897,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2054,8 +3911,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{23EFCD9E-F902-4E98-A64F-B9C37514ED2B}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{D6EC8936-B441-4CC3-835F-2C2CB2674D40}" type="CELLRANGE">
+                      <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
                     </a:fld>
@@ -2088,8 +3945,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7922660D-A837-44DC-A092-0FAE09E2F0CD}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{ED6CCA68-B126-4F75-BBD7-554C5315DFB6}" type="CELLRANGE">
+                      <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
                     </a:fld>
@@ -2122,8 +3979,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BA5AF0D4-3635-4D79-BFC8-CAD747F200C9}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{965C5B06-F8BF-4929-8072-06084C37A520}" type="CELLRANGE">
+                      <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
                     </a:fld>
@@ -2156,8 +4013,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F007FF23-B99B-4FC1-B68D-62E7EB8FFD9F}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{5DB99CFE-A892-4405-9199-98BFE10643F9}" type="CELLRANGE">
+                      <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
                     </a:fld>
@@ -2190,8 +4047,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9C5F7FB1-6202-4613-BF86-97F74C708F18}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{4FAB8C45-9BC6-4143-9F73-014EF248DB0D}" type="CELLRANGE">
+                      <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
                     </a:fld>
@@ -2224,8 +4081,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9842BBA3-9769-4D2C-9F87-653B04BA186A}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{FC7EA03C-8E1D-42DD-9635-01320F5B69A3}" type="CELLRANGE">
+                      <a:rPr lang="pt-BR"/>
                       <a:pPr/>
                       <a:t>[INTERVALODACÉLULA]</a:t>
                     </a:fld>
@@ -2722,6 +4579,365 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Correçação</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Do Zero 3'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Do Zero 3'!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9FFC-4FEF-8B68-E7EBB896EF08}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="645149328"/>
+        <c:axId val="645148368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="645149328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="645148368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="645148368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="645149328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2842,6 +5058,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3359,6 +5695,526 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="269">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3893,7 +6749,509 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4405,6 +7763,485 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4454,6 +8291,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>246783</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>91787</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>575829</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>167987</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BB8E716-2B22-877E-CEE1-8EA4DAEDE460}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>110835</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -4491,7 +8369,48 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>350691</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>5195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>406977</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A86B6C1-CF96-220F-AB01-8AC02AAA9BD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4534,10 +8453,51 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>143740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>34635</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>34635</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DAF76B6-8414-0877-B345-5EE49E3CBE8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4575,7 +8535,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4681,7 +8641,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4823,7 +8783,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4838,23 +8798,23 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.21875" customWidth="1"/>
+    <col min="2" max="3" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
@@ -4864,8 +8824,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
@@ -4875,8 +8835,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
@@ -4886,8 +8846,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
@@ -4897,8 +8857,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
@@ -4908,8 +8868,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2">
@@ -4919,8 +8879,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
@@ -4930,8 +8890,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2">
@@ -4941,8 +8901,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2">
@@ -4952,8 +8912,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2">
@@ -4977,25 +8937,27 @@
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.21875" customWidth="1"/>
+    <col min="2" max="3" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
@@ -5005,8 +8967,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
@@ -5016,8 +8978,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
@@ -5027,8 +8989,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
@@ -5038,8 +9000,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
@@ -5049,8 +9011,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2">
@@ -5060,8 +9022,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
@@ -5071,8 +9033,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2">
@@ -5082,8 +9044,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2">
@@ -5093,8 +9055,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2">
@@ -5106,6 +9068,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5118,26 +9081,26 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="19.21875" customWidth="1"/>
+    <col min="2" max="4" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
@@ -5150,8 +9113,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
@@ -5164,8 +9127,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
@@ -5178,8 +9141,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
@@ -5192,8 +9155,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
@@ -5206,8 +9169,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2">
@@ -5220,8 +9183,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
@@ -5234,8 +9197,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2">
@@ -5248,8 +9211,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2">
@@ -5262,8 +9225,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2">
@@ -5289,28 +9252,30 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="19.21875" customWidth="1"/>
+    <col min="2" max="4" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
@@ -5323,8 +9288,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
@@ -5337,8 +9302,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
@@ -5351,8 +9316,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
@@ -5365,8 +9330,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
@@ -5379,8 +9344,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2">
@@ -5393,8 +9358,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
@@ -5407,8 +9372,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2">
@@ -5421,8 +9386,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2">
@@ -5435,8 +9400,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2">
@@ -5451,6 +9416,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5462,25 +9428,25 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="15.88671875" customWidth="1"/>
+    <col min="1" max="3" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2">
@@ -5490,8 +9456,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="2">
@@ -5501,8 +9467,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="2">
@@ -5512,8 +9478,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="2">
@@ -5523,8 +9489,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="2">
@@ -5534,8 +9500,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="2">
@@ -5545,8 +9511,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="2">
@@ -5556,44 +9522,44 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <f>SLOPE(B2:B8,C2:C8)</f>
         <v>0.92338709677419351</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <f>INTERCEPT(B2:B8,C2:C8)</f>
         <v>0.89919354838709609</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <f>B12*B14+B13</f>
         <v>4.5927419354838701</v>
       </c>
@@ -5615,24 +9581,26 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="15.88671875" customWidth="1"/>
+    <col min="1" max="3" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2">
@@ -5642,8 +9610,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="2">
@@ -5653,8 +9621,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="2">
@@ -5664,8 +9632,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="2">
@@ -5675,8 +9643,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="2">
@@ -5686,8 +9654,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="2">
@@ -5697,8 +9665,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="2">
@@ -5710,5 +9678,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>